--- a/mf-intelligence/data/separated_files/sbi/SBI Energy Opportunities Fund/SBI Energy Opportunities Fund_Apr_2025.xlsx
+++ b/mf-intelligence/data/separated_files/sbi/SBI Energy Opportunities Fund/SBI Energy Opportunities Fund_Apr_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,1397 +436,971 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Name of the Instrument / Issuer</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 1</t>
+          <t>ISIN</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Name of the Instrument / Issuer</t>
+          <t>Rating / Industry^</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ISIN</t>
+          <t>Quantity</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Rating / Industry^</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Market value
 (Rs. in Lakhs)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>% to AUM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>YTM %</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>YTC % ##</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Notes &amp; Symbols</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Reliance Industries Ltd.</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>100002</t>
+          <t>INE002A01018</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>INE002A01018</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
           <t>Petroleum Products</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>7270000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>102143.5</v>
+      </c>
       <c r="F2" t="n">
-        <v>7270000</v>
-      </c>
-      <c r="G2" t="n">
-        <v>102143.5</v>
-      </c>
-      <c r="H2" t="n">
         <v>9.91</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bharat Petroleum Corporation Ltd.</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100094</t>
+          <t>INE029A01011</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bharat Petroleum Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>INE029A01011</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
           <t>Petroleum Products</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>32430249</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100549.99</v>
+      </c>
       <c r="F3" t="n">
-        <v>32430249</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100549.99</v>
-      </c>
-      <c r="H3" t="n">
         <v>9.76</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Indian Oil Corporation Ltd.</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100169</t>
+          <t>INE242A01010</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Indian Oil Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>INE242A01010</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Petroleum Products</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>59874163</v>
+      </c>
+      <c r="E4" t="n">
+        <v>82542.52</v>
+      </c>
       <c r="F4" t="n">
-        <v>59874163</v>
-      </c>
-      <c r="G4" t="n">
-        <v>82542.52</v>
-      </c>
-      <c r="H4" t="n">
         <v>8.01</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr"/>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NTPC Ltd.</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>100181</t>
+          <t>INE733E01010</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NTPC Ltd.</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>INE733E01010</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>19007670</v>
+      </c>
+      <c r="E5" t="n">
+        <v>67391.69</v>
+      </c>
       <c r="F5" t="n">
-        <v>19007670</v>
-      </c>
-      <c r="G5" t="n">
-        <v>67391.69</v>
-      </c>
-      <c r="H5" t="n">
         <v>6.54</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Gujarat State Petronet Ltd.</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>100266</t>
+          <t>INE246F01010</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gujarat State Petronet Ltd.</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>INE246F01010</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
           <t>Gas</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>17224353</v>
+      </c>
+      <c r="E6" t="n">
+        <v>55979.15</v>
+      </c>
       <c r="F6" t="n">
-        <v>17224353</v>
-      </c>
-      <c r="G6" t="n">
-        <v>55979.15</v>
-      </c>
-      <c r="H6" t="n">
         <v>5.43</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GAIL (India) Ltd.</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>100176</t>
+          <t>INE129A01019</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GAIL (India) Ltd.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>INE129A01019</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
           <t>Gas</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>26892544</v>
+      </c>
+      <c r="E7" t="n">
+        <v>50851.11</v>
+      </c>
       <c r="F7" t="n">
-        <v>26892544</v>
-      </c>
-      <c r="G7" t="n">
-        <v>50851.11</v>
-      </c>
-      <c r="H7" t="n">
         <v>4.93</v>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Petronet LNG Ltd.</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100164</t>
+          <t>INE347G01014</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Petronet LNG Ltd.</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>INE347G01014</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Gas</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>13219320</v>
+      </c>
+      <c r="E8" t="n">
+        <v>41475.62</v>
+      </c>
       <c r="F8" t="n">
-        <v>13219320</v>
-      </c>
-      <c r="G8" t="n">
-        <v>41475.62</v>
-      </c>
-      <c r="H8" t="n">
         <v>4.02</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hitachi Energy India Ltd.</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>101063</t>
+          <t>INE07Y701011</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hitachi Energy India Ltd.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>INE07Y701011</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>Electrical Equipment</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>280199</v>
+      </c>
+      <c r="E9" t="n">
+        <v>40710.11</v>
+      </c>
       <c r="F9" t="n">
-        <v>280199</v>
-      </c>
-      <c r="G9" t="n">
-        <v>40710.11</v>
-      </c>
-      <c r="H9" t="n">
         <v>3.95</v>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Kalpataru Projects International Ltd.</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>100259</t>
+          <t>INE220B01022</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Kalpataru Projects International Ltd.</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>INE220B01022</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
           <t>Construction</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>4005515</v>
+      </c>
+      <c r="E10" t="n">
+        <v>38937.61</v>
+      </c>
       <c r="F10" t="n">
-        <v>4005515</v>
-      </c>
-      <c r="G10" t="n">
-        <v>38937.61</v>
-      </c>
-      <c r="H10" t="n">
         <v>3.78</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>CESC Ltd.</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>100374</t>
+          <t>INE486A01021</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CESC Ltd.</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>INE486A01021</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>23895893</v>
+      </c>
+      <c r="E11" t="n">
+        <v>37996.86</v>
+      </c>
       <c r="F11" t="n">
-        <v>23895893</v>
-      </c>
-      <c r="G11" t="n">
-        <v>37996.86</v>
-      </c>
-      <c r="H11" t="n">
         <v>3.69</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Torrent Power Ltd.</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>100217</t>
+          <t>INE813H01021</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Torrent Power Ltd.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>INE813H01021</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>2434242</v>
+      </c>
+      <c r="E12" t="n">
+        <v>37465.42</v>
+      </c>
       <c r="F12" t="n">
-        <v>2434242</v>
-      </c>
-      <c r="G12" t="n">
-        <v>37465.42</v>
-      </c>
-      <c r="H12" t="n">
         <v>3.64</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Thermax Ltd.</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>100143</t>
+          <t>INE152A01029</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Thermax Ltd.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>INE152A01029</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
           <t>Electrical Equipment</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>1133474</v>
+      </c>
+      <c r="E13" t="n">
+        <v>37306.03</v>
+      </c>
       <c r="F13" t="n">
-        <v>1133474</v>
-      </c>
-      <c r="G13" t="n">
-        <v>37306.03</v>
-      </c>
-      <c r="H13" t="n">
         <v>3.62</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HEG Ltd.</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>100671</t>
+          <t>INE545A01024</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HEG Ltd.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>INE545A01024</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
           <t>Industrial Products</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>6719943</v>
+      </c>
+      <c r="E14" t="n">
+        <v>31338.45</v>
+      </c>
       <c r="F14" t="n">
-        <v>6719943</v>
-      </c>
-      <c r="G14" t="n">
-        <v>31338.45</v>
-      </c>
-      <c r="H14" t="n">
         <v>3.04</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Honeywell Automation India Ltd.</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>100283</t>
+          <t>INE671A01010</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Honeywell Automation India Ltd.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>INE671A01010</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
           <t>Industrial Manufacturing</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>76240</v>
+      </c>
+      <c r="E15" t="n">
+        <v>26318.05</v>
+      </c>
       <c r="F15" t="n">
-        <v>76240</v>
-      </c>
-      <c r="G15" t="n">
-        <v>26318.05</v>
-      </c>
-      <c r="H15" t="n">
         <v>2.55</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NHPC Ltd.</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>100286</t>
+          <t>INE848E01016</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NHPC Ltd.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>INE848E01016</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>20964983</v>
+      </c>
+      <c r="E16" t="n">
+        <v>17985.86</v>
+      </c>
       <c r="F16" t="n">
-        <v>20964983</v>
-      </c>
-      <c r="G16" t="n">
-        <v>17985.86</v>
-      </c>
-      <c r="H16" t="n">
         <v>1.75</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Gujarat Gas Ltd.</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>100130</t>
+          <t>INE844O01030</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Gujarat Gas Ltd.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>INE844O01030</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
           <t>Gas</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17686.5</v>
+      </c>
       <c r="F17" t="n">
-        <v>3900000</v>
-      </c>
-      <c r="G17" t="n">
-        <v>17686.5</v>
-      </c>
-      <c r="H17" t="n">
         <v>1.72</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Savita Oil Technologies Ltd.</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>101625</t>
+          <t>INE035D01020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Savita Oil Technologies Ltd.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>INE035D01020</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
           <t>Petroleum Products</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>4266441</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15871.16</v>
+      </c>
       <c r="F18" t="n">
-        <v>4266441</v>
-      </c>
-      <c r="G18" t="n">
-        <v>15871.16</v>
-      </c>
-      <c r="H18" t="n">
         <v>1.54</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr"/>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Indian Energy Exchange Ltd.</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>100694</t>
+          <t>INE022Q01020</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Indian Energy Exchange Ltd.</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>INE022Q01020</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
           <t>Capital Markets</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>8189942</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15589.55</v>
+      </c>
       <c r="F19" t="n">
-        <v>8189942</v>
-      </c>
-      <c r="G19" t="n">
-        <v>15589.55</v>
-      </c>
-      <c r="H19" t="n">
         <v>1.51</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr"/>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Power Grid Corporation of India Ltd.</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>100182</t>
+          <t>INE752E01010</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Power Grid Corporation of India Ltd.</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>INE752E01010</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>4658413</v>
+      </c>
+      <c r="E20" t="n">
+        <v>14322.29</v>
+      </c>
       <c r="F20" t="n">
-        <v>4658413</v>
-      </c>
-      <c r="G20" t="n">
-        <v>14322.29</v>
-      </c>
-      <c r="H20" t="n">
         <v>1.39</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Oil &amp; Natural Gas Corporation Ltd.</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>100111</t>
+          <t>INE213A01029</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Oil &amp; Natural Gas Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>INE213A01029</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
           <t>Oil</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>5200100</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12711.64</v>
+      </c>
       <c r="F21" t="n">
-        <v>5200100</v>
-      </c>
-      <c r="G21" t="n">
-        <v>12711.64</v>
-      </c>
-      <c r="H21" t="n">
         <v>1.23</v>
       </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Graphite India Ltd.</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>100528</t>
+          <t>INE371A01025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Graphite India Ltd.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>INE371A01025</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
           <t>Industrial Products</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>2796573</v>
+      </c>
+      <c r="E22" t="n">
+        <v>12646.1</v>
+      </c>
       <c r="F22" t="n">
-        <v>2796573</v>
-      </c>
-      <c r="G22" t="n">
-        <v>12646.1</v>
-      </c>
-      <c r="H22" t="n">
         <v>1.23</v>
       </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Tube Investments of India Ltd.</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>100670</t>
+          <t>INE974X01010</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Tube Investments of India Ltd.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>INE974X01010</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
           <t>Auto Components</t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>425000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12319.05</v>
+      </c>
       <c r="F23" t="n">
-        <v>425000</v>
-      </c>
-      <c r="G23" t="n">
-        <v>12319.05</v>
-      </c>
-      <c r="H23" t="n">
         <v>1.2</v>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GE Vernova T&amp;D India Ltd.</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>100123</t>
+          <t>INE200A01026</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GE Vernova T&amp;D India Ltd.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>INE200A01026</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
           <t>Electrical Equipment</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>781077</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12232.45</v>
+      </c>
       <c r="F24" t="n">
-        <v>781077</v>
-      </c>
-      <c r="G24" t="n">
-        <v>12232.45</v>
-      </c>
-      <c r="H24" t="n">
         <v>1.19</v>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>REC Ltd.</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>100195</t>
+          <t>INE020B01018</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>REC Ltd.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>INE020B01018</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
           <t>Finance</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>2725000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11447.73</v>
+      </c>
       <c r="F25" t="n">
-        <v>2725000</v>
-      </c>
-      <c r="G25" t="n">
-        <v>11447.73</v>
-      </c>
-      <c r="H25" t="n">
         <v>1.11</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Adani Energy Solutions Ltd.</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>101121</t>
+          <t>INE931S01010</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Adani Energy Solutions Ltd.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>INE931S01010</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>1250000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>11245.63</v>
+      </c>
       <c r="F26" t="n">
-        <v>1250000</v>
-      </c>
-      <c r="G26" t="n">
-        <v>11245.63</v>
-      </c>
-      <c r="H26" t="n">
         <v>1.09</v>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Power Finance Corporation Ltd.</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>100194</t>
+          <t>INE134E01011</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Power Finance Corporation Ltd.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>INE134E01011</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
           <t>Finance</t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>2657426</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10826.35</v>
+      </c>
       <c r="F27" t="n">
-        <v>2657426</v>
-      </c>
-      <c r="G27" t="n">
-        <v>10826.35</v>
-      </c>
-      <c r="H27" t="n">
         <v>1.05</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Shivalik Bimetal Controls Ltd.</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>101746</t>
+          <t>INE386D01027</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Shivalik Bimetal Controls Ltd.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>INE386D01027</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
           <t>Industrial Products</t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>2352146</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10301.22</v>
+      </c>
       <c r="F28" t="n">
-        <v>2352146</v>
-      </c>
-      <c r="G28" t="n">
-        <v>10301.22</v>
-      </c>
-      <c r="H28" t="n">
         <v>1</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Indraprastha Gas Ltd.</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>100219</t>
+          <t>INE203G01027</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Indraprastha Gas Ltd.</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>INE203G01027</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
           <t>Gas</t>
         </is>
       </c>
+      <c r="D29" t="n">
+        <v>5212500</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10038.75</v>
+      </c>
       <c r="F29" t="n">
-        <v>5212500</v>
-      </c>
-      <c r="G29" t="n">
-        <v>10038.75</v>
-      </c>
-      <c r="H29" t="n">
         <v>0.97</v>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Oil India Ltd.</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>100267</t>
+          <t>INE274J01014</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Oil India Ltd.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>INE274J01014</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
           <t>Oil</t>
         </is>
       </c>
+      <c r="D30" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8625.75</v>
+      </c>
       <c r="F30" t="n">
-        <v>2100000</v>
-      </c>
-      <c r="G30" t="n">
-        <v>8625.75</v>
-      </c>
-      <c r="H30" t="n">
         <v>0.84</v>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Coal India Ltd.</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>100097</t>
+          <t>INE522F01014</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Coal India Ltd.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>INE522F01014</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
           <t>Consumable Fuels</t>
         </is>
       </c>
+      <c r="D31" t="n">
+        <v>1514363</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5834.84</v>
+      </c>
       <c r="F31" t="n">
-        <v>1514363</v>
-      </c>
-      <c r="G31" t="n">
-        <v>5834.84</v>
-      </c>
-      <c r="H31" t="n">
         <v>0.57</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Siemens Ltd.</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>100115</t>
+          <t>INE003A01024</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Siemens Ltd.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>INE003A01024</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
           <t>Electrical Equipment</t>
         </is>
       </c>
+      <c r="D32" t="n">
+        <v>175784</v>
+      </c>
+      <c r="E32" t="n">
+        <v>5100.37</v>
+      </c>
       <c r="F32" t="n">
-        <v>175784</v>
-      </c>
-      <c r="G32" t="n">
-        <v>5100.37</v>
-      </c>
-      <c r="H32" t="n">
         <v>0.49</v>
       </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Inox India Ltd.</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>102039</t>
+          <t>INE616N01034</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Inox India Ltd.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>INE616N01034</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
           <t>Industrial Products</t>
         </is>
       </c>
+      <c r="D33" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1977.6</v>
+      </c>
       <c r="F33" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1977.6</v>
-      </c>
-      <c r="H33" t="n">
         <v>0.19</v>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr"/>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Acme Solar Holdings Ltd.</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>102459</t>
+          <t>INE622W01025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Acme Solar Holdings Ltd.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>INE622W01025</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
           <t>Power</t>
         </is>
       </c>
+      <c r="D34" t="n">
+        <v>900000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1882.89</v>
+      </c>
       <c r="F34" t="n">
-        <v>900000</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1882.89</v>
-      </c>
-      <c r="H34" t="n">
         <v>0.18</v>
       </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chemplast Sanmar Ltd.</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>101346</t>
+          <t>INE488A01050</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Chemplast Sanmar Ltd.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>INE488A01050</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
           <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
+      <c r="D35" t="n">
+        <v>343380</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1410.09</v>
+      </c>
       <c r="F35" t="n">
-        <v>343380</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1410.09</v>
-      </c>
-      <c r="H35" t="n">
         <v>0.14</v>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>KEC International Ltd.</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>100061</t>
+          <t>INE389H01022</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>KEC International Ltd.</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>INE389H01022</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
           <t>Construction</t>
         </is>
       </c>
+      <c r="D36" t="n">
+        <v>154669</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1079.9</v>
+      </c>
       <c r="F36" t="n">
-        <v>154669</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1079.9</v>
-      </c>
-      <c r="H36" t="n">
         <v>0.1</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>182 DAY T-BILL 05.06.25</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1801270</t>
+          <t>IN002024Y340</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>182 DAY T-BILL 05.06.25</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>IN002024Y340</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
           <t>Sovereign</t>
         </is>
       </c>
+      <c r="D37" t="n">
+        <v>500000</v>
+      </c>
+      <c r="E37" t="n">
+        <v>497.2</v>
+      </c>
       <c r="F37" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G37" t="n">
-        <v>497.2</v>
-      </c>
-      <c r="H37" t="n">
         <v>0.05</v>
       </c>
-      <c r="I37" t="n">
-        <v>5.8703</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr"/>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Name of the Instrument</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Long / Short</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Industry ^</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Quantity</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Market value 
-(Rs. in Lakhs)</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>% to AUM</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>Notes &amp; Symbols</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="n">
-        <v>2219717</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Indraprastha Gas Ltd. 29-MAY-25</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Long</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>313500</v>
-      </c>
-      <c r="G39" t="n">
-        <v>602.64105</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
